--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/1.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/1.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2120843548977088</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.596960335853485</v>
+        <v>-1.598640601265473</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1545601347467206</v>
+        <v>0.1530223180652098</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2460513419111239</v>
+        <v>-0.2456058944997958</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2392353773856506</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.527587017101279</v>
+        <v>-1.53026363661705</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1019013250436061</v>
+        <v>0.1010545027563463</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2494417790984056</v>
+        <v>-0.2489774434576219</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2668284762797324</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.480364869443137</v>
+        <v>-1.484426625785653</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09734139164919801</v>
+        <v>0.09666141538879611</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2592479182241089</v>
+        <v>-0.2588323771760855</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2758470849471581</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.550096277545439</v>
+        <v>-1.554005354033189</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1233882600684818</v>
+        <v>0.1232182660033813</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2354975437028028</v>
+        <v>-0.2354849515498324</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2663290557923572</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.585958729205154</v>
+        <v>-1.589050889768949</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1070735518762002</v>
+        <v>0.107627606606898</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2613397896363175</v>
+        <v>-0.2612909950435572</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2472759798171402</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.473293588540693</v>
+        <v>-1.476069371261107</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1188283266740737</v>
+        <v>0.1201284664682681</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2530447088670629</v>
+        <v>-0.2530588750391546</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2286315685957552</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.260844292690936</v>
+        <v>-1.262371878248159</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1539588594423837</v>
+        <v>0.1561152656385657</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2591896795166208</v>
+        <v>-0.2591629211915586</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2124922907321292</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.005950784225745</v>
+        <v>-1.006090871927541</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1743817575412602</v>
+        <v>0.1772622125332404</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2565988440429599</v>
+        <v>-0.2565059769148031</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1976542989820171</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.594789444407383</v>
+        <v>-0.5940921539366468</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1627025356612091</v>
+        <v>0.1659198307451477</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.164112628513574</v>
+        <v>-0.164484097026201</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1798521947422368</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.223579070916314</v>
+        <v>-0.2218145954813359</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1328150605859516</v>
+        <v>0.1358969900254584</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.128835711966983</v>
+        <v>-0.128919134980412</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.1513589842482296</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2367554132610425</v>
+        <v>0.239014130700109</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09949937186450125</v>
+        <v>0.1016353158121063</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03863497220172581</v>
+        <v>-0.03871682119603344</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1031828785558747</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7588528337391167</v>
+        <v>0.7625077061387769</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.007053852551948806</v>
+        <v>-0.006246380742721554</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05492157633014447</v>
+        <v>0.0549798150376326</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.03099205303022719</v>
       </c>
       <c r="E14" t="n">
-        <v>1.302383672591942</v>
+        <v>1.306775185940371</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2324754269899055</v>
+        <v>-0.231069827914584</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1584322217851203</v>
+        <v>0.1587517476667444</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.06282235768767865</v>
       </c>
       <c r="E15" t="n">
-        <v>1.863590746176975</v>
+        <v>1.868123921246321</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4441951649769397</v>
+        <v>-0.44276752963392</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2920428348967292</v>
+        <v>0.2923702308739597</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.1749920463488493</v>
       </c>
       <c r="E16" t="n">
-        <v>2.334227185503245</v>
+        <v>2.339441910852114</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6676366233603002</v>
+        <v>-0.6668055412642534</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4364118687024283</v>
+        <v>0.4366999142016263</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2970362705845263</v>
       </c>
       <c r="E17" t="n">
-        <v>2.788333276017614</v>
+        <v>2.794133536479607</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8790596587429692</v>
+        <v>-0.8792493280470859</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5547041277255389</v>
+        <v>0.5554045662345176</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4178292182010262</v>
       </c>
       <c r="E18" t="n">
-        <v>3.212085981796821</v>
+        <v>3.217527365899158</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.207053763239607</v>
+        <v>-1.207306393308575</v>
       </c>
       <c r="G18" t="n">
-        <v>0.675909896142177</v>
+        <v>0.6767331081426173</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5352673603337492</v>
       </c>
       <c r="E19" t="n">
-        <v>3.586726142953204</v>
+        <v>3.591994384952198</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.504556756327968</v>
+        <v>-1.505651486626832</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8370154752646664</v>
+        <v>0.8377867446341036</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6528626751585864</v>
       </c>
       <c r="E20" t="n">
-        <v>3.708770863561496</v>
+        <v>3.715474610999116</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.840430400545836</v>
+        <v>-1.841507029624806</v>
       </c>
       <c r="G20" t="n">
-        <v>1.013267840391432</v>
+        <v>1.014023369569657</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7735929071115711</v>
       </c>
       <c r="E21" t="n">
-        <v>3.958992683274666</v>
+        <v>3.965559491048733</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.076142124989296</v>
+        <v>-2.077706699995869</v>
       </c>
       <c r="G21" t="n">
-        <v>1.181266049246097</v>
+        <v>1.181928711296165</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8966043807898236</v>
       </c>
       <c r="E22" t="n">
-        <v>4.163355455888741</v>
+        <v>4.17025123365916</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.373578222265002</v>
+        <v>-2.374244819362873</v>
       </c>
       <c r="G22" t="n">
-        <v>1.321240421665125</v>
+        <v>1.322052615531716</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.01933460832919</v>
       </c>
       <c r="E23" t="n">
-        <v>4.389524689409316</v>
+        <v>4.395902614888826</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.505026133103943</v>
+        <v>-2.505984710748816</v>
       </c>
       <c r="G23" t="n">
-        <v>1.492803783829536</v>
+        <v>1.493378300808811</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.137338149579757</v>
       </c>
       <c r="E24" t="n">
-        <v>4.517657715978798</v>
+        <v>4.523838889068146</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.620023970106172</v>
+        <v>-2.62085662622134</v>
       </c>
       <c r="G24" t="n">
-        <v>1.596618214974923</v>
+        <v>1.597249396642564</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.246293066021884</v>
       </c>
       <c r="E25" t="n">
-        <v>4.660196165546425</v>
+        <v>4.665613939361942</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.817917524131701</v>
+        <v>-2.817824657003544</v>
       </c>
       <c r="G25" t="n">
-        <v>1.65983239690548</v>
+        <v>1.660450986420151</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.342999955115874</v>
       </c>
       <c r="E26" t="n">
-        <v>4.774965769776064</v>
+        <v>4.77965634675754</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.907971880118677</v>
+        <v>-2.907827070359517</v>
       </c>
       <c r="G26" t="n">
-        <v>1.703476799100905</v>
+        <v>1.703824657326712</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.424575668567535</v>
       </c>
       <c r="E27" t="n">
-        <v>4.887783590295291</v>
+        <v>4.891129954947177</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.98174615633404</v>
+        <v>-2.981017385480878</v>
       </c>
       <c r="G27" t="n">
-        <v>1.754386873560255</v>
+        <v>1.754468722554562</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.488240978558861</v>
       </c>
       <c r="E28" t="n">
-        <v>4.887667112880314</v>
+        <v>4.890794688874339</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.071836714760806</v>
+        <v>-3.070628655085208</v>
       </c>
       <c r="G28" t="n">
-        <v>1.795922090133137</v>
+        <v>1.795758392144522</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.532900824096957</v>
       </c>
       <c r="E29" t="n">
-        <v>4.897577137268024</v>
+        <v>4.9001616766652</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.086103624076276</v>
+        <v>-3.084629555169178</v>
       </c>
       <c r="G29" t="n">
-        <v>1.726518865017626</v>
+        <v>1.726682563006241</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.558749427961811</v>
       </c>
       <c r="E30" t="n">
-        <v>4.839119641122037</v>
+        <v>4.841767141284065</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.076216422965826</v>
+        <v>-3.074573147003188</v>
       </c>
       <c r="G30" t="n">
-        <v>1.690664283453517</v>
+        <v>1.690659561396153</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.565429562716961</v>
       </c>
       <c r="E31" t="n">
-        <v>4.714517139441632</v>
+        <v>4.716780578938063</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.065734242627524</v>
+        <v>-3.063608529804207</v>
       </c>
       <c r="G31" t="n">
-        <v>1.631965962381972</v>
+        <v>1.631934481999546</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.553378972394407</v>
       </c>
       <c r="E32" t="n">
-        <v>4.635137781135318</v>
+        <v>4.636855035996657</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.026953559516917</v>
+        <v>-3.024790070234689</v>
       </c>
       <c r="G32" t="n">
-        <v>1.594899386094462</v>
+        <v>1.5946066185379</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.523838999916435</v>
       </c>
       <c r="E33" t="n">
-        <v>4.559509310395062</v>
+        <v>4.559945313691663</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.958107537170346</v>
+        <v>-2.955815765329733</v>
       </c>
       <c r="G33" t="n">
-        <v>1.566741758033514</v>
+        <v>1.565863455363828</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.478380803266478</v>
       </c>
       <c r="E34" t="n">
-        <v>4.356012248297703</v>
+        <v>4.356967677904333</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.886595126432292</v>
+        <v>-2.883964153471038</v>
       </c>
       <c r="G34" t="n">
-        <v>1.517010623896019</v>
+        <v>1.515795481134375</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.419837836837534</v>
       </c>
       <c r="E35" t="n">
-        <v>4.131775910258085</v>
+        <v>4.132429128193425</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.855647549478839</v>
+        <v>-2.852638811928473</v>
       </c>
       <c r="G35" t="n">
-        <v>1.395554586439094</v>
+        <v>1.394526751952885</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.35249843710924</v>
       </c>
       <c r="E36" t="n">
-        <v>3.981668002736124</v>
+        <v>3.981776610055494</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.830854387289671</v>
+        <v>-2.82762213902408</v>
       </c>
       <c r="G36" t="n">
-        <v>1.369877612513316</v>
+        <v>1.368460995304145</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.280333316229141</v>
       </c>
       <c r="E37" t="n">
-        <v>3.786528982172871</v>
+        <v>3.786214178348611</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.767131010173373</v>
+        <v>-2.763868068534917</v>
       </c>
       <c r="G37" t="n">
-        <v>1.282396777789666</v>
+        <v>1.281184783066265</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.206326859511686</v>
       </c>
       <c r="E38" t="n">
-        <v>3.718739126656693</v>
+        <v>3.717366581982919</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.736702859529949</v>
+        <v>-2.733017293757424</v>
       </c>
       <c r="G38" t="n">
-        <v>1.240153252612199</v>
+        <v>1.238470626171528</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.132588048050634</v>
       </c>
       <c r="E39" t="n">
-        <v>3.509386713428095</v>
+        <v>3.507575017419478</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.754730887535767</v>
+        <v>-2.750738388034587</v>
       </c>
       <c r="G39" t="n">
-        <v>1.164836437657961</v>
+        <v>1.163201031790929</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.060436971964386</v>
       </c>
       <c r="E40" t="n">
-        <v>3.263602053617872</v>
+        <v>3.261758877226828</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.720538470163752</v>
+        <v>-2.716253990115571</v>
       </c>
       <c r="G40" t="n">
-        <v>1.100718768751777</v>
+        <v>1.099078640827382</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9899843683272884</v>
       </c>
       <c r="E41" t="n">
-        <v>3.092177205136135</v>
+        <v>3.090020798939953</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.659362642995279</v>
+        <v>-2.655304034691005</v>
       </c>
       <c r="G41" t="n">
-        <v>1.069035337859116</v>
+        <v>1.06725040017556</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.9197955845373517</v>
       </c>
       <c r="E42" t="n">
-        <v>2.980022046666976</v>
+        <v>2.976877156462617</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.628844773261941</v>
+        <v>-2.624590986586626</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9846553208044282</v>
+        <v>0.9830073227844264</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.8497760451771599</v>
       </c>
       <c r="E43" t="n">
-        <v>2.847801292439475</v>
+        <v>2.844017350471868</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.612661495666288</v>
+        <v>-2.6080771649755</v>
       </c>
       <c r="G43" t="n">
-        <v>0.9324828830097956</v>
+        <v>0.9308742354678263</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7791642097480292</v>
       </c>
       <c r="E44" t="n">
-        <v>2.720151489740232</v>
+        <v>2.715788308735987</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.540448646419255</v>
+        <v>-2.536118519816557</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8688626041459432</v>
+        <v>0.8670052615828083</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.7069885200283931</v>
       </c>
       <c r="E45" t="n">
-        <v>2.523677700962117</v>
+        <v>2.519246837135655</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.474798669898485</v>
+        <v>-2.470603908940219</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8390742922753276</v>
+        <v>0.8371020463163379</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.632184641481862</v>
       </c>
       <c r="E46" t="n">
-        <v>2.398532162684863</v>
+        <v>2.393688905848621</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.436204508053753</v>
+        <v>-2.431503699947989</v>
       </c>
       <c r="G46" t="n">
-        <v>0.775735762834188</v>
+        <v>0.7737776830472899</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5547697925007457</v>
       </c>
       <c r="E47" t="n">
-        <v>2.235336286169286</v>
+        <v>2.230555990097896</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.299767743609848</v>
+        <v>-2.295768161022623</v>
       </c>
       <c r="G47" t="n">
-        <v>0.7194393949417476</v>
+        <v>0.71745770486803</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.4752581946446455</v>
       </c>
       <c r="E48" t="n">
-        <v>2.148436264501397</v>
+        <v>2.143072007336004</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.259908857401151</v>
+        <v>-2.255343414939819</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6708572947628019</v>
+        <v>0.6688063478477471</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3937180988233309</v>
       </c>
       <c r="E49" t="n">
-        <v>1.995548639211218</v>
+        <v>1.989981333579178</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.208118119243434</v>
+        <v>-2.203497586112856</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5967052539583264</v>
+        <v>0.5945142193414759</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3114347469059406</v>
       </c>
       <c r="E50" t="n">
-        <v>1.902256525891726</v>
+        <v>1.896700238393535</v>
       </c>
       <c r="F50" t="n">
-        <v>-2.160703941252494</v>
+        <v>-2.156076325035869</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5397965926277001</v>
+        <v>0.5377173133684618</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2301002730164711</v>
       </c>
       <c r="E51" t="n">
-        <v>1.778127803966833</v>
+        <v>1.772670679673283</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.110894893168494</v>
+        <v>-2.106152373556015</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4948394584851098</v>
+        <v>0.492725550805203</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1510744543283942</v>
       </c>
       <c r="E52" t="n">
-        <v>1.666019866071313</v>
+        <v>1.660794122588594</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.991260782844475</v>
+        <v>-1.987347771308921</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4592524601716226</v>
+        <v>0.4571354044534731</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.07445119973092987</v>
       </c>
       <c r="E53" t="n">
-        <v>1.623922724672126</v>
+        <v>1.618051633349674</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.931694390227532</v>
+        <v>-1.927792396825827</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3873638588635775</v>
+        <v>0.385607253524206</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.00040554533507962</v>
       </c>
       <c r="E54" t="n">
-        <v>1.582003447433646</v>
+        <v>1.575375252913849</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.921722192084532</v>
+        <v>-1.917588030862435</v>
       </c>
       <c r="G54" t="n">
-        <v>0.3530880184781338</v>
+        <v>0.3512999327563362</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.07027241006575495</v>
       </c>
       <c r="E55" t="n">
-        <v>1.527735990188562</v>
+        <v>1.520717438926682</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.856187905969177</v>
+        <v>-1.852308735844732</v>
       </c>
       <c r="G55" t="n">
-        <v>0.3264745031751817</v>
+        <v>0.3245195714265263</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.1370993747130174</v>
       </c>
       <c r="E56" t="n">
-        <v>1.470824180819693</v>
+        <v>1.463276759133056</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.793670227499796</v>
+        <v>-1.790171182993145</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2176845975873634</v>
+        <v>0.2164788989404471</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1996799242967454</v>
       </c>
       <c r="E57" t="n">
-        <v>1.48132446237789</v>
+        <v>1.473353629547623</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.791209248603642</v>
+        <v>-1.787779460938328</v>
       </c>
       <c r="G57" t="n">
-        <v>0.2188462236988833</v>
+        <v>0.217446920700047</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2577937154985002</v>
       </c>
       <c r="E58" t="n">
-        <v>1.467413281383834</v>
+        <v>1.45888839382287</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.776240326760073</v>
+        <v>-1.772865629764004</v>
       </c>
       <c r="G58" t="n">
-        <v>0.2145066529814573</v>
+        <v>0.2130270750074347</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.3123839732438175</v>
       </c>
       <c r="E59" t="n">
-        <v>1.456610788154348</v>
+        <v>1.447586936531931</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.73880779102686</v>
+        <v>-1.735947798283457</v>
       </c>
       <c r="G59" t="n">
-        <v>0.1398509260581657</v>
+        <v>0.1387617048262256</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3651409604782517</v>
       </c>
       <c r="E60" t="n">
-        <v>1.491758635132992</v>
+        <v>1.481557417207842</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.771680393365665</v>
+        <v>-1.768544160266473</v>
       </c>
       <c r="G60" t="n">
-        <v>0.119761720013005</v>
+        <v>0.1186032419397277</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4170439358606931</v>
       </c>
       <c r="E61" t="n">
-        <v>1.490371924287126</v>
+        <v>1.479652854071069</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.790138128591597</v>
+        <v>-1.786953100899645</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1326419184826085</v>
+        <v>0.1311938208910119</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4688792513174971</v>
       </c>
       <c r="E62" t="n">
-        <v>1.502443076928381</v>
+        <v>1.491010976050374</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.834293299991885</v>
+        <v>-1.830931982158347</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04423241247739151</v>
+        <v>0.04328170492812589</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5210767215912708</v>
       </c>
       <c r="E63" t="n">
-        <v>1.48983203572852</v>
+        <v>1.477940321267093</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.794092851633865</v>
+        <v>-1.791338318171589</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0098983333844596</v>
+        <v>0.008997994447075608</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5728832142712444</v>
       </c>
       <c r="E64" t="n">
-        <v>1.492037236517462</v>
+        <v>1.479764609428681</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.821719248241374</v>
+        <v>-1.818908050090731</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.02029135336208759</v>
+        <v>-0.0212294687583828</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.6226271145710388</v>
       </c>
       <c r="E65" t="n">
-        <v>1.503648775575297</v>
+        <v>1.490608027155321</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.847189238652701</v>
+        <v>-1.844378040502058</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.02334022840004702</v>
+        <v>-0.02431926829349605</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.6686926763312681</v>
       </c>
       <c r="E66" t="n">
-        <v>1.46663414191879</v>
+        <v>1.453901901246589</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.851911296016603</v>
+        <v>-1.849404670565932</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.03179585911967431</v>
+        <v>-0.03271351226739262</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.7088501137648243</v>
       </c>
       <c r="E67" t="n">
-        <v>1.432973743009775</v>
+        <v>1.41981336913658</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.863189143020723</v>
+        <v>-1.860966628021446</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.05083676843004874</v>
+        <v>-0.05176701373073744</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.7426093241637192</v>
       </c>
       <c r="E68" t="n">
-        <v>1.383167055954458</v>
+        <v>1.369860298302982</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.89265241994279</v>
+        <v>-1.890674664916875</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.05780337706092558</v>
+        <v>-0.05888630221638046</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.7695271348020325</v>
       </c>
       <c r="E69" t="n">
-        <v>1.278186276640187</v>
+        <v>1.265516996732838</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.913894594994303</v>
+        <v>-1.912008920086985</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0802819441322207</v>
+        <v>-0.08126728010215493</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.7880744815843896</v>
       </c>
       <c r="E70" t="n">
-        <v>1.296142686775985</v>
+        <v>1.282711581613927</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.917889455524164</v>
+        <v>-1.916649128456579</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.04860323529692306</v>
+        <v>-0.04984828442187191</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.7964876509133474</v>
       </c>
       <c r="E71" t="n">
-        <v>1.289113117380256</v>
+        <v>1.27560016322389</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.951811141607315</v>
+        <v>-1.950833675732988</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.06789283962846299</v>
+        <v>-0.06935667741127263</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7936743634829765</v>
       </c>
       <c r="E72" t="n">
-        <v>1.273354037937794</v>
+        <v>1.259531002014531</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.980807721859917</v>
+        <v>-1.980053766700814</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.1033649345460953</v>
+        <v>-0.1045879474033459</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7786431059060929</v>
       </c>
       <c r="E73" t="n">
-        <v>1.278759219600341</v>
+        <v>1.264632397986667</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.980307970788904</v>
+        <v>-1.97968623323599</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.09046112578967225</v>
+        <v>-0.09180691213838434</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7509966913247498</v>
       </c>
       <c r="E74" t="n">
-        <v>1.274396038596095</v>
+        <v>1.25972303234733</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.98776960843343</v>
+        <v>-1.987438277408396</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.07084255146178048</v>
+        <v>-0.07246221713759889</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.7121115679024698</v>
       </c>
       <c r="E75" t="n">
-        <v>1.218028839843196</v>
+        <v>1.203738320240907</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.020461198573284</v>
+        <v>-2.02015347783507</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.04248344895330599</v>
+        <v>-0.04430773711489348</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.6644129033786521</v>
       </c>
       <c r="E76" t="n">
-        <v>1.254102210065165</v>
+        <v>1.239487442523888</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.023144114165541</v>
+        <v>-2.023183464643574</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.0221313817148881</v>
+        <v>-0.0242012168593985</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.6107383434680179</v>
       </c>
       <c r="E77" t="n">
-        <v>1.188355431368435</v>
+        <v>1.173998802963052</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.020399811827553</v>
+        <v>-2.020567444863972</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.02409103552090745</v>
+        <v>-0.02597828444734698</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5535192164441036</v>
       </c>
       <c r="E78" t="n">
-        <v>1.207781975363529</v>
+        <v>1.193584322889396</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.030847363745187</v>
+        <v>-2.03110550288108</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.0187173342407869</v>
+        <v>-0.02070689441011097</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4947582291464818</v>
       </c>
       <c r="E79" t="n">
-        <v>1.193167207822252</v>
+        <v>1.179289081229743</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.007573130008074</v>
+        <v>-2.007919414214761</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.04082128476121246</v>
+        <v>-0.04256372392849232</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4366031711821838</v>
       </c>
       <c r="E80" t="n">
-        <v>1.170164492383563</v>
+        <v>1.157304756162537</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.969693572844412</v>
+        <v>-1.969917083559637</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.02436648886713507</v>
+        <v>-0.02619077702872257</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3807062955148736</v>
       </c>
       <c r="E81" t="n">
-        <v>1.193442661168479</v>
+        <v>1.181310121781494</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.922606003821142</v>
+        <v>-1.923013674773559</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.004508663632805595</v>
+        <v>-0.006353414042970001</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3273860979075531</v>
       </c>
       <c r="E82" t="n">
-        <v>1.252019782767684</v>
+        <v>1.239969092375006</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.952014977083524</v>
+        <v>-1.951778874215329</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02355924533822827</v>
+        <v>0.02154764890120599</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2761666091672327</v>
       </c>
       <c r="E83" t="n">
-        <v>1.337751882247569</v>
+        <v>1.326285152948893</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.84711447274444</v>
+        <v>-1.846967301956598</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01536490179273689</v>
+        <v>0.01371060769624987</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2267810320509339</v>
       </c>
       <c r="E84" t="n">
-        <v>1.329300973585306</v>
+        <v>1.319247713457558</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.786977498196025</v>
+        <v>-1.786441544685222</v>
       </c>
       <c r="G84" t="n">
-        <v>0.02562750646361737</v>
+        <v>0.0240928378203492</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.178983540726786</v>
       </c>
       <c r="E85" t="n">
-        <v>1.436606579141737</v>
+        <v>1.427408011396856</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.76042064758144</v>
+        <v>-1.759150414150551</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01897412763787937</v>
+        <v>0.0176692657863211</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1341228135805389</v>
       </c>
       <c r="E86" t="n">
-        <v>1.681133597674042</v>
+        <v>1.67220103916066</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.656579458110991</v>
+        <v>-1.654987337769796</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03453173263281537</v>
+        <v>0.03339214278899367</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.09483300235959792</v>
       </c>
       <c r="E87" t="n">
-        <v>1.610760776779809</v>
+        <v>1.604266373885323</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.537587547588462</v>
+        <v>-1.535562571988909</v>
       </c>
       <c r="G87" t="n">
-        <v>0.05517814144691648</v>
+        <v>0.05413141873125153</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.0637868184993363</v>
       </c>
       <c r="E88" t="n">
-        <v>1.757267328552235</v>
+        <v>1.751251427470623</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.337433702104746</v>
+        <v>-1.335594460761506</v>
       </c>
       <c r="G88" t="n">
-        <v>0.09178038209364268</v>
+        <v>0.09077300985601024</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.04284370432135855</v>
       </c>
       <c r="E89" t="n">
-        <v>1.923419212977614</v>
+        <v>1.918064399926949</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.162080888905803</v>
+        <v>-1.160440760981408</v>
       </c>
       <c r="G89" t="n">
-        <v>0.115437889486792</v>
+        <v>0.1144619976315856</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.03391726664054796</v>
       </c>
       <c r="E90" t="n">
-        <v>1.941743943587797</v>
+        <v>1.937767971287391</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.9213008228917551</v>
+        <v>-0.9199038809216007</v>
       </c>
       <c r="G90" t="n">
-        <v>0.1443054001714466</v>
+        <v>0.1433090460676633</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.03901202329560893</v>
       </c>
       <c r="E91" t="n">
-        <v>1.979270133458726</v>
+        <v>1.975745904646134</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6691728660226897</v>
+        <v>-0.6677845811577025</v>
       </c>
       <c r="G91" t="n">
-        <v>0.09634661156453597</v>
+        <v>0.09590116415320789</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.05831613275773529</v>
       </c>
       <c r="E92" t="n">
-        <v>1.994846626683118</v>
+        <v>1.991413690979561</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4639868814081746</v>
+        <v>-0.4625356357783353</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1078322290926671</v>
+        <v>0.1072640081898776</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.08910365496414861</v>
       </c>
       <c r="E93" t="n">
-        <v>1.968078857506278</v>
+        <v>1.964741936969121</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2427018292209961</v>
+        <v>-0.2415874236831152</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09282867882842893</v>
+        <v>0.09234230691994702</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1248205250207464</v>
       </c>
       <c r="E94" t="n">
-        <v>1.854812441537481</v>
+        <v>1.851802916977554</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.05959303680184447</v>
+        <v>-0.05849594547429789</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06744919451657665</v>
+        <v>0.06701948729646157</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1569568272611395</v>
       </c>
       <c r="E95" t="n">
-        <v>1.802854070343345</v>
+        <v>1.800214440276924</v>
       </c>
       <c r="F95" t="n">
-        <v>0.07116073160460366</v>
+        <v>0.07250336991507315</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05533082130168265</v>
+        <v>0.05473269403558839</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.17952808928341</v>
       </c>
       <c r="E96" t="n">
-        <v>1.674314946840567</v>
+        <v>1.671928733852675</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1443557687833283</v>
+        <v>0.1456795188643421</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.004667639564056964</v>
+        <v>-0.005013923770743115</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.1928145716408771</v>
       </c>
       <c r="E97" t="n">
-        <v>1.506842460372417</v>
+        <v>1.505419547086761</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1475069550641722</v>
+        <v>0.1493280951875171</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01979396331975657</v>
+        <v>-0.02019691221480955</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2037660149994209</v>
       </c>
       <c r="E98" t="n">
-        <v>1.392726074078117</v>
+        <v>1.391581762176931</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1759384624522266</v>
+        <v>0.1775486840133172</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.05763180897670381</v>
+        <v>-0.05820789997509986</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2186966821877413</v>
       </c>
       <c r="E99" t="n">
-        <v>1.251926915639528</v>
+        <v>1.251394897176528</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1788425277310263</v>
+        <v>0.1805062659422411</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.09765439317401639</v>
+        <v>-0.09802900972488596</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2443265540527115</v>
       </c>
       <c r="E100" t="n">
-        <v>1.091945186169647</v>
+        <v>1.091857041098854</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2362422830274985</v>
+        <v>0.2371410479457612</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1453188402052438</v>
+        <v>-0.1454274475246136</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2766847916636767</v>
       </c>
       <c r="E101" t="n">
-        <v>0.908148547394487</v>
+        <v>0.9091496235556342</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2179946793542596</v>
+        <v>0.2190634383376228</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1709328533661699</v>
+        <v>-0.1711075694886343</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3193050553636417</v>
       </c>
       <c r="E102" t="n">
-        <v>0.848970150490945</v>
+        <v>0.8495855919673736</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2569453565299665</v>
+        <v>0.2575954264270636</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.2091122611724394</v>
+        <v>-0.2091956841858683</v>
       </c>
     </row>
   </sheetData>
